--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a75_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-304.30358535466974</v>
+        <v>-123.47338599291076</v>
       </c>
       <c r="C2">
-        <v>8.539427985</v>
+        <v>11.58513594</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.0669055353195</v>
+        <v>-117.61674239208173</v>
       </c>
       <c r="C3">
-        <v>0.053464437</v>
+        <v>1.126510692</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-312.4090439770373</v>
+        <v>-122.00142694489136</v>
       </c>
       <c r="C4">
-        <v>0.081974404</v>
+        <v>1.661837389</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-317.203342894221</v>
+        <v>-121.30725074603507</v>
       </c>
       <c r="C5">
-        <v>0.044740705</v>
+        <v>1.85554566</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-302.6749030743839</v>
+        <v>-120.12292887523148</v>
       </c>
       <c r="C6">
-        <v>0.103056643</v>
+        <v>1.5235452</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-303.1862543324665</v>
+        <v>-118.89272632913344</v>
       </c>
       <c r="C7">
-        <v>0.067667719</v>
+        <v>1.243050717</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-293.5572988833811</v>
+        <v>-115.03704412679099</v>
       </c>
       <c r="C8">
-        <v>0.060272242</v>
+        <v>0.730974331</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>272</v>
-      </c>
       <c r="G8">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-302.6320763645107</v>
+        <v>-119.4414786677371</v>
       </c>
       <c r="C9">
-        <v>0.042611667</v>
+        <v>3.316354304</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>245</v>
+        <v>1160</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-311.9147911076324</v>
+        <v>-120.14729806480668</v>
       </c>
       <c r="C10">
-        <v>0.046847261</v>
+        <v>1.774442533</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-293.13603103747107</v>
+        <v>-116.26509295246984</v>
       </c>
       <c r="C11">
-        <v>0.060225574</v>
+        <v>1.425632529</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>735</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.49675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03449025350036621</v>
+      </c>
+      <c r="E2">
+        <v>63.72233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-311.9147911076324</v>
+        <v>-122.60307577160691</v>
       </c>
       <c r="C3">
-        <v>1.822402158581022e-14</v>
+        <v>0.04652688427021274</v>
       </c>
       <c r="D3">
+        <v>0.3599168425843506</v>
+      </c>
+      <c r="E3">
+        <v>1.32953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-120.21728715145892</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.2589474648817139</v>
+      </c>
+      <c r="E4">
+        <v>0.15899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-120.18365539531456</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.41616787946398925</v>
+      </c>
+      <c r="E5">
+        <v>0.09688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-120.14729806480668</v>
+      </c>
+      <c r="C6">
+        <v>0.05037904073727907</v>
+      </c>
+      <c r="D6">
+        <v>0.4981170173718262</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +878,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +912,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.13875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00995822580859375</v>
+      </c>
+      <c r="E2">
+        <v>60.67933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-293.13603103747107</v>
+        <v>-117.80949837201628</v>
       </c>
       <c r="C3">
-        <v>3.878296274914252e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.2999713899041748</v>
+      </c>
+      <c r="E3">
+        <v>1.35204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-116.68813542478317</v>
+      </c>
+      <c r="C4">
+        <v>0.04543991320788234</v>
+      </c>
+      <c r="D4">
+        <v>0.2827727579638672</v>
+      </c>
+      <c r="E4">
+        <v>0.97353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-116.26509295246984</v>
+      </c>
+      <c r="C5">
+        <v>0.0544999020168238</v>
+      </c>
+      <c r="D5">
+        <v>0.6725899798935547</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +976,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1010,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.05211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0241520235583497</v>
+      </c>
+      <c r="E2">
+        <v>59.94297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-304.30358535466974</v>
+        <v>-126.64904925811092</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07471808880805848</v>
       </c>
       <c r="D3">
+        <v>0.39804981325585936</v>
+      </c>
+      <c r="E3">
+        <v>1.90128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-123.93633385854498</v>
+      </c>
+      <c r="C4">
+        <v>0.01626097193264495</v>
+      </c>
+      <c r="D4">
+        <v>0.584505866081543</v>
+      </c>
+      <c r="E4">
+        <v>0.80238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-123.47338599291076</v>
+      </c>
+      <c r="C5">
+        <v>0.09470072967912951</v>
+      </c>
+      <c r="D5">
+        <v>0.6575753143414307</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1074,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1108,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.34858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023886040701416016</v>
+      </c>
+      <c r="E2">
+        <v>62.46291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.0669055353195</v>
+        <v>-122.40540454129201</v>
       </c>
       <c r="C3">
-        <v>3.826977546243739e-14</v>
+        <v>0.06485823993122984</v>
       </c>
       <c r="D3">
+        <v>0.06526364995532227</v>
+      </c>
+      <c r="E3">
+        <v>2.37668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-118.58874735423971</v>
+      </c>
+      <c r="C4">
+        <v>0.09600608058981183</v>
+      </c>
+      <c r="D4">
+        <v>0.28769023990673825</v>
+      </c>
+      <c r="E4">
+        <v>0.83344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-117.77251433531963</v>
+      </c>
+      <c r="C5">
+        <v>0.007288889012194085</v>
+      </c>
+      <c r="D5">
+        <v>0.23777969265026855</v>
+      </c>
+      <c r="E5">
+        <v>0.3985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-117.61674239208173</v>
+      </c>
+      <c r="C6">
+        <v>0.0036863907332809354</v>
+      </c>
+      <c r="D6">
+        <v>0.29368777319421385</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1189,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1223,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.92774</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02437500214404297</v>
+      </c>
+      <c r="E2">
+        <v>58.8858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-312.4090439770373</v>
+        <v>-127.03510429237329</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.01238391408838036</v>
       </c>
       <c r="D3">
+        <v>0.25310303773828124</v>
+      </c>
+      <c r="E3">
+        <v>2.78912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-122.55298246059273</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.3230062557707519</v>
+      </c>
+      <c r="E4">
+        <v>0.74939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-122.15527193139405</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.41607932321362306</v>
+      </c>
+      <c r="E5">
+        <v>0.35516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-122.00142694489136</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.46060650741809084</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1304,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1338,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.36914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.034666089139648436</v>
+      </c>
+      <c r="E2">
+        <v>62.63769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-317.203342894221</v>
+        <v>-123.05217028487802</v>
       </c>
       <c r="C3">
-        <v>1.792018278941842e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.2412662113803711</v>
+      </c>
+      <c r="E3">
+        <v>2.20011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-121.31421668577879</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.3152249327921143</v>
+      </c>
+      <c r="E4">
+        <v>0.16182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-121.31022937386933</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.3478003252739258</v>
+      </c>
+      <c r="E5">
+        <v>0.06402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-121.30725074603507</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.6776745479580079</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1419,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1453,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.60924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03798383113525391</v>
+      </c>
+      <c r="E2">
+        <v>64.67854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-302.6749030743839</v>
+        <v>-123.19399036250468</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.0833827957565918</v>
+      </c>
+      <c r="E3">
+        <v>1.8019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-120.34910524787668</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.42530392878991696</v>
+      </c>
+      <c r="E4">
+        <v>0.46338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-120.13075673729558</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.379068259241333</v>
+      </c>
+      <c r="E5">
+        <v>0.14604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-120.12292887523148</v>
+      </c>
+      <c r="C6">
+        <v>0.006516542793089828</v>
+      </c>
+      <c r="D6">
+        <v>0.3762699576866455</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1534,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1568,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.4418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0377672000291748</v>
+      </c>
+      <c r="E2">
+        <v>63.25529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-303.1862543324665</v>
+        <v>-121.11758302046474</v>
       </c>
       <c r="C3">
-        <v>3.7497358833726145e-14</v>
+        <v>0.04104828327735285</v>
       </c>
       <c r="D3">
+        <v>0.21855457342224122</v>
+      </c>
+      <c r="E3">
+        <v>1.77837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-119.08121719969266</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.27498086406433103</v>
+      </c>
+      <c r="E4">
+        <v>0.28671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-118.89272632913344</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.5569895889580078</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1632,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1666,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.68389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03592838562609863</v>
+      </c>
+      <c r="E2">
+        <v>56.81308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-293.5572988833811</v>
+        <v>-116.7593206509421</v>
       </c>
       <c r="C3">
-        <v>1.9363653731999465e-14</v>
+        <v>0.0821598579340738</v>
       </c>
       <c r="D3">
+        <v>0.2846729293519287</v>
+      </c>
+      <c r="E3">
+        <v>1.42871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-115.03704412679099</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.27698869836462403</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1713,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1747,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.53549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03685204564794922</v>
+      </c>
+      <c r="E2">
+        <v>64.05169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-302.6320763645107</v>
+        <v>-122.07083453866738</v>
       </c>
       <c r="C3">
-        <v>1.8783011881504308e-14</v>
+        <v>0.00010414232260194279</v>
       </c>
       <c r="D3">
+        <v>0.25484094958203124</v>
+      </c>
+      <c r="E3">
+        <v>1.68915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-120.96552125530707</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5423333158133545</v>
+      </c>
+      <c r="E4">
+        <v>1.08268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-120.11641834427391</v>
+      </c>
+      <c r="C5">
+        <v>0.07221425093691529</v>
+      </c>
+      <c r="D5">
+        <v>0.5156566344555664</v>
+      </c>
+      <c r="E5">
+        <v>0.99862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-119.63033489615346</v>
+      </c>
+      <c r="C6">
+        <v>0.0014988669096216393</v>
+      </c>
+      <c r="D6">
+        <v>0.9452707965606689</v>
+      </c>
+      <c r="E6">
+        <v>0.29611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-119.4414786677371</v>
+      </c>
+      <c r="C7">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <v>0.777989005578247</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
